--- a/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC.xlsx
+++ b/Collections/EURO/Germany/#EURO#Germany#Commemorative#[2006-present]#UNC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23AFD8-3B5A-47F6-8578-039001309E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42E2F90-51C6-4A77-86A4-F62770160CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1430" windowWidth="33150" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -206,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="208">
   <si>
     <t>Year</t>
   </si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>German Unification</t>
   </si>
 </sst>
 </file>
@@ -1374,6 +1380,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,9 +1412,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1825,7 +1831,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U33" sqref="U33"/>
+      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1840,35 +1846,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
-      <c r="C1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="C1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="23" t="s">
         <v>184</v>
       </c>
@@ -1911,7 +1917,7 @@
       <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="54" t="s">
         <v>205</v>
       </c>
       <c r="Q2" s="21"/>
@@ -3632,7 +3638,9 @@
       <c r="A36" s="15">
         <v>2025</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="18" t="s">
         <v>140</v>
@@ -3646,19 +3654,19 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="16" t="str">
